--- a/biology/Botanique/Jardin_d'hiver/Jardin_d'hiver.xlsx
+++ b/biology/Botanique/Jardin_d'hiver/Jardin_d'hiver.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_d%27hiver</t>
+          <t>Jardin_d'hiver</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un jardin d'hiver est un jardin cultivé sous une structure métallique publique largement vitrée, ou sous une véranda vitrée en prolongement d'une salle de séjour privée, chauffée ou non, pour abriter des plantes d'intérieur toute l'année, exotiques ou non, ou des plantes qui ne supportent pas le froid ou le gel de l'hiver[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un jardin d'hiver est un jardin cultivé sous une structure métallique publique largement vitrée, ou sous une véranda vitrée en prolongement d'une salle de séjour privée, chauffée ou non, pour abriter des plantes d'intérieur toute l'année, exotiques ou non, ou des plantes qui ne supportent pas le froid ou le gel de l'hiver.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_d%27hiver</t>
+          <t>Jardin_d'hiver</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la suite des orangeries du XVIe siècle, les jardins d'hiver se propagent avec l'essor de l'architecture métallique industrielle et des verrières de l'Art nouveau du XIXe siècle, avec en particulier le premier jardin d'hiver de 1881 des grandes serres du jardin des plantes de Paris, inauguré lors de l'Exposition universelle de Paris de 1889[2],[3]. Cette pièce d'agrément, chauffée, qui donne sur le jardin ou sur le parc, devient alors en vogue dans les châteaux du XIXe siècle, pour y accueillir des collections de plantes exotiques et de palmiers d'intérieur, cultivées en pots déplaçables. Ancêtre des vérandas, elle sert pour le thé ou des réceptions plus intimes[4]. Guy de Maupassant décrit un jardin d'hiver dans son roman Bel-Ami de 1885, lorsque le protagoniste entre dans le salon parisien du rédacteur en chef de presse Charles Forestier : « […] il eut de nouveau la sensation de pénétrer dans une serre. De grands palmiers ouvraient leurs feuilles élégantes dans les autres coins de la pièce, montaient jusqu'au plafond, puis s’élargissaient en jets d’eau. Des deux côtés de la cheminée, des caoutchoucs, ronds comme des colonnes, étageaient l’une sur l'autre leurs longues feuilles d’un vert sombre, et sur le piano deux arbustes inconnus, ronds et couverts de fleurs, l’un tout rose et l’autre tout blanc, avaient l’air de plantes factices, invraisemblables, trop belles pour être vraies. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite des orangeries du XVIe siècle, les jardins d'hiver se propagent avec l'essor de l'architecture métallique industrielle et des verrières de l'Art nouveau du XIXe siècle, avec en particulier le premier jardin d'hiver de 1881 des grandes serres du jardin des plantes de Paris, inauguré lors de l'Exposition universelle de Paris de 1889,. Cette pièce d'agrément, chauffée, qui donne sur le jardin ou sur le parc, devient alors en vogue dans les châteaux du XIXe siècle, pour y accueillir des collections de plantes exotiques et de palmiers d'intérieur, cultivées en pots déplaçables. Ancêtre des vérandas, elle sert pour le thé ou des réceptions plus intimes. Guy de Maupassant décrit un jardin d'hiver dans son roman Bel-Ami de 1885, lorsque le protagoniste entre dans le salon parisien du rédacteur en chef de presse Charles Forestier : « […] il eut de nouveau la sensation de pénétrer dans une serre. De grands palmiers ouvraient leurs feuilles élégantes dans les autres coins de la pièce, montaient jusqu'au plafond, puis s’élargissaient en jets d’eau. Des deux côtés de la cheminée, des caoutchoucs, ronds comme des colonnes, étageaient l’une sur l'autre leurs longues feuilles d’un vert sombre, et sur le piano deux arbustes inconnus, ronds et couverts de fleurs, l’un tout rose et l’autre tout blanc, avaient l’air de plantes factices, invraisemblables, trop belles pour être vraies. »
 	Quelques jardins d'hiver
 			Jardin d'hiver du musée Horniman à Londres.
 			Restaurant jardin d'hiver de Hainichen en Allemagne.
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_d%27hiver</t>
+          <t>Jardin_d'hiver</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,9 +568,11 @@
           <t>Musique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1999 : Jardin d'hiver, chanson coécrite par Benjamin Biolay et Keren Ann[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1999 : Jardin d'hiver, chanson coécrite par Benjamin Biolay et Keren Ann.</t>
         </is>
       </c>
     </row>
